--- a/設計書について/CloudDiagram.xlsx
+++ b/設計書について/CloudDiagram.xlsx
@@ -1218,16 +1218,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>114301</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>114301</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -1236,10 +1236,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4114800" y="1485901"/>
-          <a:ext cx="333375" cy="342899"/>
-          <a:chOff x="4105275" y="1371601"/>
-          <a:chExt cx="657226" cy="704849"/>
+          <a:off x="3648075" y="1381126"/>
+          <a:ext cx="1266826" cy="552450"/>
+          <a:chOff x="3185159" y="1156230"/>
+          <a:chExt cx="2497461" cy="1135593"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:pic>
@@ -1272,8 +1272,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="4105275" y="1371601"/>
-            <a:ext cx="657226" cy="704849"/>
+            <a:off x="3185159" y="1156230"/>
+            <a:ext cx="2497461" cy="1135593"/>
           </a:xfrm>
           <a:prstGeom prst="roundRect">
             <a:avLst/>
@@ -2450,62 +2450,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="87" name="正方形/長方形 86"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3362325" y="2647950"/>
-          <a:ext cx="581025" cy="285750"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>Proxy2</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>128588</xdr:colOff>
       <xdr:row>19</xdr:row>
@@ -2613,59 +2557,6 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>443221</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>223838</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>146480</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="93" name="直線矢印コネクタ 92"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="84" idx="0"/>
-          <a:endCxn id="87" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="3186421" y="2933700"/>
-          <a:ext cx="466417" cy="127430"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="C00000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>78362</xdr:rowOff>
@@ -2741,6 +2632,172 @@
         <a:xfrm flipH="1" flipV="1">
           <a:off x="1814513" y="2914650"/>
           <a:ext cx="1252537" cy="1200150"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="60" name="角丸四角形 59"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4810124" y="3800476"/>
+          <a:ext cx="3028951" cy="990600"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>590551</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="68" name="正方形/長方形 67"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6076951" y="4114800"/>
+          <a:ext cx="504824" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Web</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>176521</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>87887</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>157163</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="69" name="直線矢印コネクタ 68"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="27" idx="2"/>
+          <a:endCxn id="68" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4291321" y="1802387"/>
+          <a:ext cx="2038042" cy="2312413"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3034,8 +3091,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
